--- a/Daily/Forecast/Non-Stationarity/Log-Price/Nippon_tel.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Log-Price/Nippon_tel.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,41 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="C2">
-        <v>6.015197525245005</v>
+        <v>5.568139041551893</v>
       </c>
       <c r="D2">
-        <v>5.793175260154612</v>
+        <v>5.342133352882346</v>
       </c>
       <c r="E2">
-        <v>6.237219790335397</v>
+        <v>5.79414473022144</v>
       </c>
       <c r="F2">
-        <v>6.059123195581797</v>
+        <v>5.583496308781699</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>2585</v>
+      </c>
+      <c r="B3">
+        <v>2585</v>
+      </c>
+      <c r="C3">
+        <v>5.583908360316888</v>
+      </c>
+      <c r="D3">
+        <v>5.357945615895725</v>
+      </c>
+      <c r="E3">
+        <v>5.809871104738051</v>
+      </c>
+      <c r="F3">
+        <v>5.572154032177765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2586</v>
+      </c>
+      <c r="B4">
+        <v>2586</v>
+      </c>
+      <c r="C4">
+        <v>5.571647710503827</v>
+      </c>
+      <c r="D4">
+        <v>5.345728205399713</v>
+      </c>
+      <c r="E4">
+        <v>5.79756721560794</v>
+      </c>
+      <c r="F4">
+        <v>5.568344503761097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2587</v>
+      </c>
+      <c r="B5">
+        <v>2587</v>
+      </c>
+      <c r="C5">
+        <v>5.568122082884084</v>
+      </c>
+      <c r="D5">
+        <v>5.342246210430813</v>
+      </c>
+      <c r="E5">
+        <v>5.793997955337356</v>
+      </c>
+      <c r="F5">
+        <v>5.58724865840025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2588</v>
+      </c>
+      <c r="B6">
+        <v>2588</v>
+      </c>
+      <c r="C6">
+        <v>5.587788418527969</v>
+      </c>
+      <c r="D6">
+        <v>5.361954988087625</v>
+      </c>
+      <c r="E6">
+        <v>5.813621848968314</v>
+      </c>
+      <c r="F6">
+        <v>5.583496308781699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2589</v>
+      </c>
+      <c r="B7">
+        <v>2589</v>
+      </c>
+      <c r="C7">
+        <v>5.583245287846107</v>
+      </c>
+      <c r="D7">
+        <v>5.357455414966215</v>
+      </c>
+      <c r="E7">
+        <v>5.809035160725998</v>
+      </c>
+      <c r="F7">
+        <v>5.564520407322694</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2590</v>
+      </c>
+      <c r="B8">
+        <v>2590</v>
+      </c>
+      <c r="C8">
+        <v>5.563776882544733</v>
+      </c>
+      <c r="D8">
+        <v>5.338029450578548</v>
+      </c>
+      <c r="E8">
+        <v>5.789524314510918</v>
+      </c>
+      <c r="F8">
+        <v>5.575949103146316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2591</v>
+      </c>
+      <c r="B9">
+        <v>2591</v>
+      </c>
+      <c r="C9">
+        <v>5.576250442405018</v>
+      </c>
+      <c r="D9">
+        <v>5.350546092269656</v>
+      </c>
+      <c r="E9">
+        <v>5.80195479254038</v>
+      </c>
+      <c r="F9">
+        <v>5.583496308781699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2592</v>
+      </c>
+      <c r="B10">
+        <v>2592</v>
+      </c>
+      <c r="C10">
+        <v>5.583634186996342</v>
+      </c>
+      <c r="D10">
+        <v>5.357973207626488</v>
+      </c>
+      <c r="E10">
+        <v>5.809295166366196</v>
+      </c>
+      <c r="F10">
+        <v>5.575949103146316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2593</v>
+      </c>
+      <c r="B11">
+        <v>2593</v>
+      </c>
+      <c r="C11">
+        <v>5.575581733224948</v>
+      </c>
+      <c r="D11">
+        <v>5.349964077423312</v>
+      </c>
+      <c r="E11">
+        <v>5.801199389026584</v>
+      </c>
+      <c r="F11">
+        <v>5.568344503761097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2594</v>
+      </c>
+      <c r="B12">
+        <v>2594</v>
+      </c>
+      <c r="C12">
+        <v>5.567989886778378</v>
+      </c>
+      <c r="D12">
+        <v>5.342415551440662</v>
+      </c>
+      <c r="E12">
+        <v>5.793564222116093</v>
+      </c>
+      <c r="F12">
+        <v>5.572154032177765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>2595</v>
+      </c>
+      <c r="B13">
+        <v>2595</v>
+      </c>
+      <c r="C13">
+        <v>5.572184744104546</v>
+      </c>
+      <c r="D13">
+        <v>5.346653819452095</v>
+      </c>
+      <c r="E13">
+        <v>5.797715668756997</v>
+      </c>
+      <c r="F13">
+        <v>5.572154032177765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>2596</v>
+      </c>
+      <c r="B14">
+        <v>2596</v>
+      </c>
+      <c r="C14">
+        <v>5.572043456269815</v>
+      </c>
+      <c r="D14">
+        <v>5.346555973956803</v>
+      </c>
+      <c r="E14">
+        <v>5.797530938582827</v>
+      </c>
+      <c r="F14">
+        <v>5.564520407322694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2597</v>
+      </c>
+      <c r="B15">
+        <v>2597</v>
+      </c>
+      <c r="C15">
+        <v>5.564155164540328</v>
+      </c>
+      <c r="D15">
+        <v>5.338710913611336</v>
+      </c>
+      <c r="E15">
+        <v>5.789599415469319</v>
+      </c>
+      <c r="F15">
+        <v>5.564520407322694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>2598</v>
+      </c>
+      <c r="B16">
+        <v>2598</v>
+      </c>
+      <c r="C16">
+        <v>5.564420959159824</v>
+      </c>
+      <c r="D16">
+        <v>5.339020100019355</v>
+      </c>
+      <c r="E16">
+        <v>5.789821818300292</v>
+      </c>
+      <c r="F16">
+        <v>5.564520407322694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>2599</v>
+      </c>
+      <c r="B17">
+        <v>2599</v>
+      </c>
+      <c r="C17">
+        <v>5.5644120403755</v>
+      </c>
+      <c r="D17">
+        <v>5.339054548374961</v>
+      </c>
+      <c r="E17">
+        <v>5.78976953237604</v>
+      </c>
+      <c r="F17">
+        <v>5.560681631015528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>2600</v>
+      </c>
+      <c r="C18">
+        <v>5.560443129515154</v>
+      </c>
+      <c r="D18">
+        <v>5.335128933925651</v>
+      </c>
+      <c r="E18">
+        <v>5.785757325104656</v>
+      </c>
+      <c r="F18">
+        <v>5.572154032177765</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>2601</v>
+      </c>
+      <c r="B19">
+        <v>2601</v>
+      </c>
+      <c r="C19">
+        <v>5.572439088746969</v>
+      </c>
+      <c r="D19">
+        <v>5.347167761236164</v>
+      </c>
+      <c r="E19">
+        <v>5.797710416257774</v>
+      </c>
+      <c r="F19">
+        <v>5.572154032177765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2602</v>
+      </c>
+      <c r="B20">
+        <v>2602</v>
+      </c>
+      <c r="C20">
+        <v>5.572035096067464</v>
+      </c>
+      <c r="D20">
+        <v>5.346807060550348</v>
+      </c>
+      <c r="E20">
+        <v>5.79726313158458</v>
+      </c>
+      <c r="F20">
+        <v>5.572154032177765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>2603</v>
+      </c>
+      <c r="B21">
+        <v>2603</v>
+      </c>
+      <c r="C21">
+        <v>5.572048736818737</v>
+      </c>
+      <c r="D21">
+        <v>5.346863968579786</v>
+      </c>
+      <c r="E21">
+        <v>5.797233505057688</v>
+      </c>
+      <c r="F21">
+        <v>5.572154032177765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>2604</v>
+      </c>
+      <c r="B22">
+        <v>2604</v>
+      </c>
+      <c r="C22">
+        <v>5.572048312330883</v>
+      </c>
+      <c r="D22">
+        <v>5.346906786453768</v>
+      </c>
+      <c r="E22">
+        <v>5.797189838207997</v>
+      </c>
+      <c r="F22">
+        <v>5.583496308781699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2605</v>
+      </c>
+      <c r="B23">
+        <v>2605</v>
+      </c>
+      <c r="C23">
+        <v>5.583776032600063</v>
+      </c>
+      <c r="D23">
+        <v>5.358677295427348</v>
+      </c>
+      <c r="E23">
+        <v>5.808874769772778</v>
+      </c>
+      <c r="F23">
+        <v>5.575949103146316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>2606</v>
+      </c>
+      <c r="B24">
+        <v>2606</v>
+      </c>
+      <c r="C24">
+        <v>5.575577579168089</v>
+      </c>
+      <c r="D24">
+        <v>5.350521833839132</v>
+      </c>
+      <c r="E24">
+        <v>5.800633324497045</v>
+      </c>
+      <c r="F24">
+        <v>5.575949103146316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>2607</v>
+      </c>
+      <c r="B25">
+        <v>2607</v>
+      </c>
+      <c r="C25">
+        <v>5.575853580428245</v>
+      </c>
+      <c r="D25">
+        <v>5.350841002539485</v>
+      </c>
+      <c r="E25">
+        <v>5.800866158317006</v>
+      </c>
+      <c r="F25">
+        <v>5.590986980510857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>2608</v>
+      </c>
+      <c r="B26">
+        <v>2608</v>
+      </c>
+      <c r="C26">
+        <v>5.591392905728873</v>
+      </c>
+      <c r="D26">
+        <v>5.366422721864113</v>
+      </c>
+      <c r="E26">
+        <v>5.816363089593634</v>
+      </c>
+      <c r="F26">
+        <v>5.645446897643238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>2609</v>
+      </c>
+      <c r="B27">
+        <v>2609</v>
+      </c>
+      <c r="C27">
+        <v>5.647188171701143</v>
+      </c>
+      <c r="D27">
+        <v>5.422251548380554</v>
+      </c>
+      <c r="E27">
+        <v>5.872124795021732</v>
+      </c>
+      <c r="F27">
+        <v>5.676753802268282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>2610</v>
+      </c>
+      <c r="B28">
+        <v>2610</v>
+      </c>
+      <c r="C28">
+        <v>5.677685478348315</v>
+      </c>
+      <c r="D28">
+        <v>5.452789094163094</v>
+      </c>
+      <c r="E28">
+        <v>5.902581862533536</v>
+      </c>
+      <c r="F28">
+        <v>5.700443573390687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>2611</v>
+      </c>
+      <c r="B29">
+        <v>2611</v>
+      </c>
+      <c r="C29">
+        <v>5.70115382676739</v>
+      </c>
+      <c r="D29">
+        <v>5.476298821107513</v>
+      </c>
+      <c r="E29">
+        <v>5.926008832427267</v>
+      </c>
+      <c r="F29">
+        <v>5.937536205082426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>2612</v>
+      </c>
+      <c r="B30">
+        <v>2612</v>
+      </c>
+      <c r="C30">
+        <v>5.945710794375374</v>
+      </c>
+      <c r="D30">
+        <v>5.720715867440861</v>
+      </c>
+      <c r="E30">
+        <v>6.170705721309888</v>
+      </c>
+      <c r="F30">
+        <v>6.003887067106539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>2613</v>
+      </c>
+      <c r="B31">
+        <v>2613</v>
+      </c>
+      <c r="C31">
+        <v>6.005889373512334</v>
+      </c>
+      <c r="D31">
+        <v>5.780926572824859</v>
+      </c>
+      <c r="E31">
+        <v>6.230852174199809</v>
+      </c>
+      <c r="F31">
+        <v>6.184148890937483</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>2614</v>
+      </c>
+      <c r="B32">
+        <v>2614</v>
+      </c>
+      <c r="C32">
+        <v>6.191042511594079</v>
+      </c>
+      <c r="D32">
+        <v>5.966019024025422</v>
+      </c>
+      <c r="E32">
+        <v>6.416065999162737</v>
+      </c>
+      <c r="F32">
+        <v>6.089044875446846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>2615</v>
+      </c>
+      <c r="B33">
+        <v>2615</v>
+      </c>
+      <c r="C33">
+        <v>6.085180423842266</v>
+      </c>
+      <c r="D33">
+        <v>5.860166193474294</v>
+      </c>
+      <c r="E33">
+        <v>6.310194654210237</v>
+      </c>
+      <c r="F33">
+        <v>5.986452005284438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>2616</v>
+      </c>
+      <c r="B34">
+        <v>2616</v>
+      </c>
+      <c r="C34">
+        <v>5.982484720121604</v>
+      </c>
+      <c r="D34">
+        <v>5.757481751926798</v>
+      </c>
+      <c r="E34">
+        <v>6.207487688316409</v>
+      </c>
+      <c r="F34">
+        <v>5.968707559985366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>2617</v>
+      </c>
+      <c r="B35">
+        <v>2617</v>
+      </c>
+      <c r="C35">
+        <v>5.967986803546552</v>
+      </c>
+      <c r="D35">
+        <v>5.74302620943836</v>
+      </c>
+      <c r="E35">
+        <v>6.192947397654743</v>
+      </c>
+      <c r="F35">
+        <v>5.940171252720432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>2618</v>
+      </c>
+      <c r="B36">
+        <v>2618</v>
+      </c>
+      <c r="C36">
+        <v>5.938902110124027</v>
+      </c>
+      <c r="D36">
+        <v>5.713981943901787</v>
+      </c>
+      <c r="E36">
+        <v>6.163822276346266</v>
+      </c>
+      <c r="F36">
+        <v>5.877735781779639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>2619</v>
+      </c>
+      <c r="B37">
+        <v>2619</v>
+      </c>
+      <c r="C37">
+        <v>5.875317551607587</v>
+      </c>
+      <c r="D37">
+        <v>5.650428411008097</v>
+      </c>
+      <c r="E37">
+        <v>6.100206692207077</v>
+      </c>
+      <c r="F37">
+        <v>5.860786223465865</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>2620</v>
+      </c>
+      <c r="B38">
+        <v>2620</v>
+      </c>
+      <c r="C38">
+        <v>5.860193579614499</v>
+      </c>
+      <c r="D38">
+        <v>5.635346671629712</v>
+      </c>
+      <c r="E38">
+        <v>6.085040487599287</v>
+      </c>
+      <c r="F38">
+        <v>5.87493073085203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>2621</v>
+      </c>
+      <c r="B39">
+        <v>2621</v>
+      </c>
+      <c r="C39">
+        <v>5.875493511673306</v>
+      </c>
+      <c r="D39">
+        <v>5.650688794130589</v>
+      </c>
+      <c r="E39">
+        <v>6.100298229216023</v>
+      </c>
+      <c r="F39">
+        <v>5.950642552587727</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>2622</v>
+      </c>
+      <c r="B40">
+        <v>2622</v>
+      </c>
+      <c r="C40">
+        <v>5.953415791559369</v>
+      </c>
+      <c r="D40">
+        <v>5.728635192013149</v>
+      </c>
+      <c r="E40">
+        <v>6.178196391105589</v>
+      </c>
+      <c r="F40">
+        <v>5.860786223465865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>2623</v>
+      </c>
+      <c r="B41">
+        <v>2623</v>
+      </c>
+      <c r="C41">
+        <v>5.857226202272636</v>
+      </c>
+      <c r="D41">
+        <v>5.632460775868832</v>
+      </c>
+      <c r="E41">
+        <v>6.081991628676439</v>
+      </c>
+      <c r="F41">
+        <v>5.869296913133774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>2624</v>
+      </c>
+      <c r="B42">
+        <v>2624</v>
+      </c>
+      <c r="C42">
+        <v>5.869735695365871</v>
+      </c>
+      <c r="D42">
+        <v>5.645012629730743</v>
+      </c>
+      <c r="E42">
+        <v>6.094458761000999</v>
+      </c>
+      <c r="F42">
+        <v>5.834810737062605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>2625</v>
+      </c>
+      <c r="B43">
+        <v>2625</v>
+      </c>
+      <c r="C43">
+        <v>5.83345825606289</v>
+      </c>
+      <c r="D43">
+        <v>5.60877402727083</v>
+      </c>
+      <c r="E43">
+        <v>6.058142484854951</v>
+      </c>
+      <c r="F43">
+        <v>5.799092654460526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>2626</v>
+      </c>
+      <c r="B44">
+        <v>2626</v>
+      </c>
+      <c r="C44">
+        <v>5.797741371492712</v>
+      </c>
+      <c r="D44">
+        <v>5.573096081781892</v>
+      </c>
+      <c r="E44">
+        <v>6.022386661203533</v>
+      </c>
+      <c r="F44">
+        <v>5.752572638825633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>2627</v>
+      </c>
+      <c r="B45">
+        <v>2627</v>
+      </c>
+      <c r="C45">
+        <v>5.750780583709485</v>
+      </c>
+      <c r="D45">
+        <v>5.526171413794927</v>
+      </c>
+      <c r="E45">
+        <v>5.975389753624043</v>
+      </c>
+      <c r="F45">
+        <v>5.799092654460526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>2628</v>
+      </c>
+      <c r="B46">
+        <v>2628</v>
+      </c>
+      <c r="C46">
+        <v>5.800884009882402</v>
+      </c>
+      <c r="D46">
+        <v>5.57630999109003</v>
+      </c>
+      <c r="E46">
+        <v>6.025458028674775</v>
+      </c>
+      <c r="F46">
+        <v>5.746203190540153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>2629</v>
+      </c>
+      <c r="B47">
+        <v>2629</v>
+      </c>
+      <c r="C47">
+        <v>5.74409579666492</v>
+      </c>
+      <c r="D47">
+        <v>5.519554772877688</v>
+      </c>
+      <c r="E47">
+        <v>5.968636820452152</v>
+      </c>
+      <c r="F47">
+        <v>5.799092654460526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>2630</v>
+      </c>
+      <c r="B48">
+        <v>2630</v>
+      </c>
+      <c r="C48">
+        <v>5.80107715957014</v>
+      </c>
+      <c r="D48">
+        <v>5.576569003667991</v>
+      </c>
+      <c r="E48">
+        <v>6.025585315472288</v>
+      </c>
+      <c r="F48">
+        <v>5.780743515792329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>2631</v>
+      </c>
+      <c r="B49">
+        <v>2631</v>
+      </c>
+      <c r="C49">
+        <v>5.779950165012218</v>
+      </c>
+      <c r="D49">
+        <v>5.555483336503127</v>
+      </c>
+      <c r="E49">
+        <v>6.004416993521308</v>
+      </c>
+      <c r="F49">
+        <v>5.872117789475416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>2632</v>
+      </c>
+      <c r="B50">
+        <v>2632</v>
+      </c>
+      <c r="C50">
+        <v>5.875444964570853</v>
+      </c>
+      <c r="D50">
+        <v>5.650993177758219</v>
+      </c>
+      <c r="E50">
+        <v>6.099896751383487</v>
+      </c>
+      <c r="F50">
+        <v>5.899897353582491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>2633</v>
+      </c>
+      <c r="B51">
+        <v>2633</v>
+      </c>
+      <c r="C51">
+        <v>5.900785965127377</v>
+      </c>
+      <c r="D51">
+        <v>5.676374862463974</v>
+      </c>
+      <c r="E51">
+        <v>6.12519706779078</v>
+      </c>
+      <c r="F51">
+        <v>5.926926025970411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>2634</v>
+      </c>
+      <c r="B52">
+        <v>2634</v>
+      </c>
+      <c r="C52">
+        <v>5.927699047268146</v>
+      </c>
+      <c r="D52">
+        <v>5.703327999420427</v>
+      </c>
+      <c r="E52">
+        <v>6.152070095115866</v>
+      </c>
+      <c r="F52">
+        <v>5.926926025970411</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>2635</v>
+      </c>
+      <c r="B53">
+        <v>2635</v>
+      </c>
+      <c r="C53">
+        <v>5.926707904214493</v>
+      </c>
+      <c r="D53">
+        <v>5.702379433035149</v>
+      </c>
+      <c r="E53">
+        <v>6.151036375393837</v>
+      </c>
+      <c r="F53">
+        <v>5.968707559985366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>2636</v>
+      </c>
+      <c r="B54">
+        <v>2636</v>
+      </c>
+      <c r="C54">
+        <v>5.970053337064142</v>
+      </c>
+      <c r="D54">
+        <v>5.745761694289988</v>
+      </c>
+      <c r="E54">
+        <v>6.194344979838296</v>
+      </c>
+      <c r="F54">
+        <v>6.006353159601733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>2637</v>
+      </c>
+      <c r="B55">
+        <v>2637</v>
+      </c>
+      <c r="C55">
+        <v>6.007500615513372</v>
+      </c>
+      <c r="D55">
+        <v>5.783247232581436</v>
+      </c>
+      <c r="E55">
+        <v>6.231753998445308</v>
+      </c>
+      <c r="F55">
+        <v>6.018593214496234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>2638</v>
+      </c>
+      <c r="B56">
+        <v>2638</v>
+      </c>
+      <c r="C56">
+        <v>6.018813003391548</v>
+      </c>
+      <c r="D56">
+        <v>5.794601730701672</v>
+      </c>
+      <c r="E56">
+        <v>6.243024276081425</v>
+      </c>
+      <c r="F56">
+        <v>6.07993319509559</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>2639</v>
+      </c>
+      <c r="B57">
+        <v>2639</v>
+      </c>
+      <c r="C57">
+        <v>6.082006739595197</v>
+      </c>
+      <c r="D57">
+        <v>5.857825830657267</v>
+      </c>
+      <c r="E57">
+        <v>6.306187648533128</v>
+      </c>
+      <c r="F57">
+        <v>6.124683390894205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>2640</v>
+      </c>
+      <c r="B58">
+        <v>2640</v>
+      </c>
+      <c r="C58">
+        <v>6.126084982309037</v>
+      </c>
+      <c r="D58">
+        <v>5.901940634279232</v>
+      </c>
+      <c r="E58">
+        <v>6.350229330338843</v>
+      </c>
+      <c r="F58">
+        <v>6.152732694704104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>2641</v>
+      </c>
+      <c r="B59">
+        <v>2641</v>
+      </c>
+      <c r="C59">
+        <v>6.153542265475992</v>
+      </c>
+      <c r="D59">
+        <v>5.929438036316864</v>
+      </c>
+      <c r="E59">
+        <v>6.377646494635121</v>
+      </c>
+      <c r="F59">
+        <v>6.309918278226516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>2642</v>
+      </c>
+      <c r="B60">
+        <v>2642</v>
+      </c>
+      <c r="C60">
+        <v>6.315742481797819</v>
+      </c>
+      <c r="D60">
+        <v>6.091601397454378</v>
+      </c>
+      <c r="E60">
+        <v>6.53988356614126</v>
+      </c>
+      <c r="F60">
+        <v>6.476972362889683</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>2643</v>
+      </c>
+      <c r="B61">
+        <v>2643</v>
+      </c>
+      <c r="C61">
+        <v>6.483714965480624</v>
+      </c>
+      <c r="D61">
+        <v>6.259532411844186</v>
+      </c>
+      <c r="E61">
+        <v>6.707897519117062</v>
+      </c>
+      <c r="F61">
+        <v>6.309918278226516</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>2644</v>
+      </c>
+      <c r="B62">
+        <v>2644</v>
+      </c>
+      <c r="C62">
+        <v>6.303130337491607</v>
+      </c>
+      <c r="D62">
+        <v>6.078892711368741</v>
+      </c>
+      <c r="E62">
+        <v>6.527367963614472</v>
+      </c>
+      <c r="F62">
+        <v>6.297109319933935</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>2645</v>
+      </c>
+      <c r="B63">
+        <v>2645</v>
+      </c>
+      <c r="C63">
+        <v>6.296687389647612</v>
+      </c>
+      <c r="D63">
+        <v>6.0724920386654</v>
+      </c>
+      <c r="E63">
+        <v>6.520882740629824</v>
+      </c>
+      <c r="F63">
+        <v>6.349138991379798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>2646</v>
+      </c>
+      <c r="B64">
+        <v>2646</v>
+      </c>
+      <c r="C64">
+        <v>6.350957187193782</v>
+      </c>
+      <c r="D64">
+        <v>6.126795304811428</v>
+      </c>
+      <c r="E64">
+        <v>6.575119069576135</v>
+      </c>
+      <c r="F64">
+        <v>6.293419278846481</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>2647</v>
+      </c>
+      <c r="B65">
+        <v>2647</v>
+      </c>
+      <c r="C65">
+        <v>6.291055244542103</v>
+      </c>
+      <c r="D65">
+        <v>6.066924985509576</v>
+      </c>
+      <c r="E65">
+        <v>6.51518550357463</v>
+      </c>
+      <c r="F65">
+        <v>6.297109319933935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>2648</v>
+      </c>
+      <c r="B66">
+        <v>2648</v>
+      </c>
+      <c r="C66">
+        <v>6.297144646118098</v>
+      </c>
+      <c r="D66">
+        <v>6.07305659246706</v>
+      </c>
+      <c r="E66">
+        <v>6.521232699769136</v>
+      </c>
+      <c r="F66">
+        <v>6.267200548541362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>2649</v>
+      </c>
+      <c r="B67">
+        <v>2649</v>
+      </c>
+      <c r="C67">
+        <v>6.265880699687054</v>
+      </c>
+      <c r="D67">
+        <v>6.041832041473799</v>
+      </c>
+      <c r="E67">
+        <v>6.489929357900309</v>
+      </c>
+      <c r="F67">
+        <v>6.218600119691729</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B68">
+        <v>2650</v>
+      </c>
+      <c r="C68">
+        <v>6.216614900606139</v>
+      </c>
+      <c r="D68">
+        <v>5.992601281175906</v>
+      </c>
+      <c r="E68">
+        <v>6.440628520036372</v>
+      </c>
+      <c r="F68">
+        <v>6.19644412779452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>2651</v>
+      </c>
+      <c r="B69">
+        <v>2651</v>
+      </c>
+      <c r="C69">
+        <v>6.19548384679072</v>
+      </c>
+      <c r="D69">
+        <v>5.971511166093076</v>
+      </c>
+      <c r="E69">
+        <v>6.419456527488363</v>
+      </c>
+      <c r="F69">
+        <v>6.186208623900494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>2652</v>
+      </c>
+      <c r="B70">
+        <v>2652</v>
+      </c>
+      <c r="C70">
+        <v>6.185662550438813</v>
+      </c>
+      <c r="D70">
+        <v>5.961731819247675</v>
+      </c>
+      <c r="E70">
+        <v>6.40959328162995</v>
+      </c>
+      <c r="F70">
+        <v>6.214608098422191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>2653</v>
+      </c>
+      <c r="B71">
+        <v>2653</v>
+      </c>
+      <c r="C71">
+        <v>6.215517772019028</v>
+      </c>
+      <c r="D71">
+        <v>5.991626539553552</v>
+      </c>
+      <c r="E71">
+        <v>6.439409004484503</v>
+      </c>
+      <c r="F71">
+        <v>6.167516490888342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>2654</v>
+      </c>
+      <c r="B72">
+        <v>2654</v>
+      </c>
+      <c r="C72">
+        <v>6.165508708980649</v>
+      </c>
+      <c r="D72">
+        <v>5.941652207791149</v>
+      </c>
+      <c r="E72">
+        <v>6.389365210170149</v>
+      </c>
+      <c r="F72">
+        <v>6.131226489483141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>2655</v>
+      </c>
+      <c r="B73">
+        <v>2655</v>
+      </c>
+      <c r="C73">
+        <v>6.129726718126977</v>
+      </c>
+      <c r="D73">
+        <v>5.905908576310721</v>
+      </c>
+      <c r="E73">
+        <v>6.353544859943233</v>
+      </c>
+      <c r="F73">
+        <v>6.131226489483141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>2656</v>
+      </c>
+      <c r="B74">
+        <v>2656</v>
+      </c>
+      <c r="C74">
+        <v>6.131091352100283</v>
+      </c>
+      <c r="D74">
+        <v>5.907315343011732</v>
+      </c>
+      <c r="E74">
+        <v>6.354867361188833</v>
+      </c>
+      <c r="F74">
+        <v>6.133398042996649</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>2657</v>
+      </c>
+      <c r="B75">
+        <v>2657</v>
+      </c>
+      <c r="C75">
+        <v>6.133293419377062</v>
+      </c>
+      <c r="D75">
+        <v>5.909559505185744</v>
+      </c>
+      <c r="E75">
+        <v>6.35702733356838</v>
+      </c>
+      <c r="F75">
+        <v>6.131226489483141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>2658</v>
+      </c>
+      <c r="B76">
+        <v>2658</v>
+      </c>
+      <c r="C76">
+        <v>6.13095547933103</v>
+      </c>
+      <c r="D76">
+        <v>5.907263645292766</v>
+      </c>
+      <c r="E76">
+        <v>6.354647313369294</v>
+      </c>
+      <c r="F76">
+        <v>6.139884552226255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>2659</v>
+      </c>
+      <c r="B77">
+        <v>2659</v>
+      </c>
+      <c r="C77">
+        <v>6.140032057651792</v>
+      </c>
+      <c r="D77">
+        <v>5.916382030676792</v>
+      </c>
+      <c r="E77">
+        <v>6.363682084626793</v>
+      </c>
+      <c r="F77">
+        <v>6.12029741895095</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>2660</v>
+      </c>
+      <c r="B78">
+        <v>2660</v>
+      </c>
+      <c r="C78">
+        <v>6.119352111582899</v>
+      </c>
+      <c r="D78">
+        <v>5.895742864800719</v>
+      </c>
+      <c r="E78">
+        <v>6.342961358365078</v>
+      </c>
+      <c r="F78">
+        <v>6.142037405587356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>2661</v>
+      </c>
+      <c r="B79">
+        <v>2661</v>
+      </c>
+      <c r="C79">
+        <v>6.14270763532187</v>
+      </c>
+      <c r="D79">
+        <v>5.919138757437159</v>
+      </c>
+      <c r="E79">
+        <v>6.366276513206581</v>
+      </c>
+      <c r="F79">
+        <v>6.232448016550522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>2662</v>
+      </c>
+      <c r="B80">
+        <v>2662</v>
+      </c>
+      <c r="C80">
+        <v>6.235701502281808</v>
+      </c>
+      <c r="D80">
+        <v>6.012148641678214</v>
+      </c>
+      <c r="E80">
+        <v>6.459254362885402</v>
+      </c>
+      <c r="F80">
+        <v>6.142037405587356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>2663</v>
+      </c>
+      <c r="B81">
+        <v>2663</v>
+      </c>
+      <c r="C81">
+        <v>6.138400060410109</v>
+      </c>
+      <c r="D81">
+        <v>5.914860891270814</v>
+      </c>
+      <c r="E81">
+        <v>6.361939229549404</v>
+      </c>
+      <c r="F81">
+        <v>6.194405391104672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>2664</v>
+      </c>
+      <c r="B82">
+        <v>2664</v>
+      </c>
+      <c r="C82">
+        <v>6.196214929498302</v>
+      </c>
+      <c r="D82">
+        <v>5.972707631467781</v>
+      </c>
+      <c r="E82">
+        <v>6.419722227528823</v>
+      </c>
+      <c r="F82">
+        <v>6.142037405587356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>2665</v>
+      </c>
+      <c r="B83">
+        <v>2665</v>
+      </c>
+      <c r="C83">
+        <v>6.13994051654391</v>
+      </c>
+      <c r="D83">
+        <v>5.916465686792559</v>
+      </c>
+      <c r="E83">
+        <v>6.363415346295261</v>
+      </c>
+      <c r="F83">
+        <v>6.131226489483141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>2666</v>
+      </c>
+      <c r="B84">
+        <v>2666</v>
+      </c>
+      <c r="C84">
+        <v>6.130727650265396</v>
+      </c>
+      <c r="D84">
+        <v>5.90729449070797</v>
+      </c>
+      <c r="E84">
+        <v>6.354160809822821</v>
+      </c>
+      <c r="F84">
+        <v>6.137727054086234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>2667</v>
+      </c>
+      <c r="B85">
+        <v>2667</v>
+      </c>
+      <c r="C85">
+        <v>6.137782251329646</v>
+      </c>
+      <c r="D85">
+        <v>5.914390826435006</v>
+      </c>
+      <c r="E85">
+        <v>6.361173676224287</v>
+      </c>
+      <c r="F85">
+        <v>6.124683390894205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>2668</v>
+      </c>
+      <c r="B86">
+        <v>2668</v>
+      </c>
+      <c r="C86">
+        <v>6.124030228541107</v>
+      </c>
+      <c r="D86">
+        <v>5.900680119367035</v>
+      </c>
+      <c r="E86">
+        <v>6.34738033771518</v>
+      </c>
+      <c r="F86">
+        <v>6.109247582764366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>2669</v>
+      </c>
+      <c r="B87">
+        <v>2669</v>
+      </c>
+      <c r="C87">
+        <v>6.108534495798962</v>
+      </c>
+      <c r="D87">
+        <v>5.885225525827377</v>
+      </c>
+      <c r="E87">
+        <v>6.331843465770548</v>
+      </c>
+      <c r="F87">
+        <v>6.109247582764366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>2670</v>
+      </c>
+      <c r="B88">
+        <v>2670</v>
+      </c>
+      <c r="C88">
+        <v>6.109081358718262</v>
+      </c>
+      <c r="D88">
+        <v>5.885814208932381</v>
+      </c>
+      <c r="E88">
+        <v>6.332348508504143</v>
+      </c>
+      <c r="F88">
+        <v>6.111467339502679</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>2671</v>
+      </c>
+      <c r="B89">
+        <v>2671</v>
+      </c>
+      <c r="C89">
+        <v>6.1113605481784</v>
+      </c>
+      <c r="D89">
+        <v>5.888135180729412</v>
+      </c>
+      <c r="E89">
+        <v>6.334585915627388</v>
+      </c>
+      <c r="F89">
+        <v>6.135564891081739</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>2672</v>
+      </c>
+      <c r="B90">
+        <v>2672</v>
+      </c>
+      <c r="C90">
+        <v>6.136228364997355</v>
+      </c>
+      <c r="D90">
+        <v>5.913042888812677</v>
+      </c>
+      <c r="E90">
+        <v>6.359413841182033</v>
+      </c>
+      <c r="F90">
+        <v>6.135564891081739</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>2673</v>
+      </c>
+      <c r="B91">
+        <v>2673</v>
+      </c>
+      <c r="C91">
+        <v>6.135350510212292</v>
+      </c>
+      <c r="D91">
+        <v>5.912206784861887</v>
+      </c>
+      <c r="E91">
+        <v>6.358494235562697</v>
+      </c>
+      <c r="F91">
+        <v>6.182084906716632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>2674</v>
+      </c>
+      <c r="B92">
+        <v>2674</v>
+      </c>
+      <c r="C92">
+        <v>6.183543273747959</v>
+      </c>
+      <c r="D92">
+        <v>5.960434252294648</v>
+      </c>
+      <c r="E92">
+        <v>6.40665229520127</v>
+      </c>
+      <c r="F92">
+        <v>6.230481447578482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>2675</v>
+      </c>
+      <c r="B93">
+        <v>2675</v>
+      </c>
+      <c r="C93">
+        <v>6.231965597192294</v>
+      </c>
+      <c r="D93">
+        <v>6.00889120140627</v>
+      </c>
+      <c r="E93">
+        <v>6.455039992978319</v>
+      </c>
+      <c r="F93">
+        <v>6.171700597410915</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>2676</v>
+      </c>
+      <c r="B94">
+        <v>2676</v>
+      </c>
+      <c r="C94">
+        <v>6.169389671694162</v>
+      </c>
+      <c r="D94">
+        <v>5.946345265953457</v>
+      </c>
+      <c r="E94">
+        <v>6.392434077434868</v>
+      </c>
+      <c r="F94">
+        <v>6.298949246855942</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>2677</v>
+      </c>
+      <c r="B95">
+        <v>2677</v>
+      </c>
+      <c r="C95">
+        <v>6.303116564272019</v>
+      </c>
+      <c r="D95">
+        <v>6.080059873741574</v>
+      </c>
+      <c r="E95">
+        <v>6.526173254802465</v>
+      </c>
+      <c r="F95">
+        <v>6.311734809152915</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>2678</v>
+      </c>
+      <c r="B96">
+        <v>2678</v>
+      </c>
+      <c r="C96">
+        <v>6.311834643248392</v>
+      </c>
+      <c r="D96">
+        <v>6.08881936841334</v>
+      </c>
+      <c r="E96">
+        <v>6.534849918083445</v>
+      </c>
+      <c r="F96">
+        <v>6.242223265455165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>2679</v>
+      </c>
+      <c r="B97">
+        <v>2679</v>
+      </c>
+      <c r="C97">
+        <v>6.239676561213926</v>
+      </c>
+      <c r="D97">
+        <v>6.016687320696431</v>
+      </c>
+      <c r="E97">
+        <v>6.462665801731421</v>
+      </c>
+      <c r="F97">
+        <v>6.282266746896006</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>2680</v>
+      </c>
+      <c r="B98">
+        <v>2680</v>
+      </c>
+      <c r="C98">
+        <v>6.283491553494769</v>
+      </c>
+      <c r="D98">
+        <v>6.060538102736486</v>
+      </c>
+      <c r="E98">
+        <v>6.506445004253052</v>
+      </c>
+      <c r="F98">
+        <v>6.331501849893691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>2681</v>
+      </c>
+      <c r="B99">
+        <v>2681</v>
+      </c>
+      <c r="C99">
+        <v>6.332926960244519</v>
+      </c>
+      <c r="D99">
+        <v>6.110007697182271</v>
+      </c>
+      <c r="E99">
+        <v>6.555846223306767</v>
+      </c>
+      <c r="F99">
+        <v>6.302618975744905</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>2682</v>
+      </c>
+      <c r="B100">
+        <v>2682</v>
+      </c>
+      <c r="C100">
+        <v>6.30141610596189</v>
+      </c>
+      <c r="D100">
+        <v>6.078535449214495</v>
+      </c>
+      <c r="E100">
+        <v>6.524296762709285</v>
+      </c>
+      <c r="F100">
+        <v>6.317164686747284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>2683</v>
+      </c>
+      <c r="B101">
+        <v>2683</v>
+      </c>
+      <c r="C101">
+        <v>6.317498586292307</v>
+      </c>
+      <c r="D101">
+        <v>6.094658675387114</v>
+      </c>
+      <c r="E101">
+        <v>6.540338497197499</v>
+      </c>
+      <c r="F101">
+        <v>6.373319789577012</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>2684</v>
+      </c>
+      <c r="B102">
+        <v>2684</v>
+      </c>
+      <c r="C102">
+        <v>6.374998247286492</v>
+      </c>
+      <c r="D102">
+        <v>6.152189853809972</v>
+      </c>
+      <c r="E102">
+        <v>6.597806640763013</v>
+      </c>
+      <c r="F102">
+        <v>6.423246963533519</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>2685</v>
+      </c>
+      <c r="B103">
+        <v>2685</v>
+      </c>
+      <c r="C103">
+        <v>6.424696712870342</v>
+      </c>
+      <c r="D103">
+        <v>6.201922349905969</v>
+      </c>
+      <c r="E103">
+        <v>6.647471075834716</v>
+      </c>
+      <c r="F103">
+        <v>6.428105272684596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>2686</v>
+      </c>
+      <c r="B104">
+        <v>2686</v>
+      </c>
+      <c r="C104">
+        <v>6.428030517107874</v>
+      </c>
+      <c r="D104">
+        <v>6.205297594179594</v>
+      </c>
+      <c r="E104">
+        <v>6.650763440036155</v>
+      </c>
+      <c r="F104">
+        <v>6.403574197934815</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>2687</v>
+      </c>
+      <c r="B105">
+        <v>2687</v>
+      </c>
+      <c r="C105">
+        <v>6.402551938031959</v>
+      </c>
+      <c r="D105">
+        <v>6.179858537355042</v>
+      </c>
+      <c r="E105">
+        <v>6.625245338708876</v>
+      </c>
+      <c r="F105">
+        <v>6.222576268071369</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>2688</v>
+      </c>
+      <c r="B106">
+        <v>2688</v>
+      </c>
+      <c r="C106">
+        <v>6.216114855919286</v>
+      </c>
+      <c r="D106">
+        <v>5.993358934738151</v>
+      </c>
+      <c r="E106">
+        <v>6.438870777100421</v>
+      </c>
+      <c r="F106">
+        <v>6.22455842927536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>2689</v>
+      </c>
+      <c r="B107">
+        <v>2689</v>
+      </c>
+      <c r="C107">
+        <v>6.224656183503998</v>
+      </c>
+      <c r="D107">
+        <v>6.001941458998671</v>
+      </c>
+      <c r="E107">
+        <v>6.447370908009325</v>
+      </c>
+      <c r="F107">
+        <v>6.267200548541362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>2690</v>
+      </c>
+      <c r="B108">
+        <v>2690</v>
+      </c>
+      <c r="C108">
+        <v>6.268483638511478</v>
+      </c>
+      <c r="D108">
+        <v>6.04580451841924</v>
+      </c>
+      <c r="E108">
+        <v>6.491162758603716</v>
+      </c>
+      <c r="F108">
+        <v>6.249975242259483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>2691</v>
+      </c>
+      <c r="B109">
+        <v>2691</v>
+      </c>
+      <c r="C109">
+        <v>6.249144369540685</v>
+      </c>
+      <c r="D109">
+        <v>6.026505527628697</v>
+      </c>
+      <c r="E109">
+        <v>6.471783211452672</v>
+      </c>
+      <c r="F109">
+        <v>6.20455776256869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>2692</v>
+      </c>
+      <c r="B110">
+        <v>2692</v>
+      </c>
+      <c r="C110">
+        <v>6.202817451236861</v>
+      </c>
+      <c r="D110">
+        <v>5.980213583942445</v>
+      </c>
+      <c r="E110">
+        <v>6.425421318531277</v>
+      </c>
+      <c r="F110">
+        <v>6.212606095751519</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>2693</v>
+      </c>
+      <c r="B111">
+        <v>2693</v>
+      </c>
+      <c r="C111">
+        <v>6.212752373998616</v>
+      </c>
+      <c r="D111">
+        <v>5.990189536772671</v>
+      </c>
+      <c r="E111">
+        <v>6.435315211224562</v>
+      </c>
+      <c r="F111">
+        <v>6.167516490888342</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>2694</v>
+      </c>
+      <c r="B112">
+        <v>2694</v>
+      </c>
+      <c r="C112">
+        <v>6.165759407145598</v>
+      </c>
+      <c r="D112">
+        <v>5.943231315634141</v>
+      </c>
+      <c r="E112">
+        <v>6.388287498657054</v>
+      </c>
+      <c r="F112">
+        <v>6.135564891081739</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>2695</v>
+      </c>
+      <c r="B113">
+        <v>2695</v>
+      </c>
+      <c r="C113">
+        <v>6.134322645557857</v>
+      </c>
+      <c r="D113">
+        <v>5.911832922849144</v>
+      </c>
+      <c r="E113">
+        <v>6.35681236826657</v>
+      </c>
+      <c r="F113">
+        <v>6.137727054086234</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>2696</v>
+      </c>
+      <c r="B114">
+        <v>2696</v>
+      </c>
+      <c r="C114">
+        <v>6.137652800536486</v>
+      </c>
+      <c r="D114">
+        <v>5.915204305458382</v>
+      </c>
+      <c r="E114">
+        <v>6.36010129561459</v>
+      </c>
+      <c r="F114">
+        <v>6.131226489483141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>2697</v>
+      </c>
+      <c r="B115">
+        <v>2697</v>
+      </c>
+      <c r="C115">
+        <v>6.130811088653089</v>
+      </c>
+      <c r="D115">
+        <v>5.908403707136303</v>
+      </c>
+      <c r="E115">
+        <v>6.353218470169875</v>
+      </c>
+      <c r="F115">
+        <v>6.133398042996649</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B116">
+        <v>2698</v>
+      </c>
+      <c r="C116">
+        <v>6.133296071491339</v>
+      </c>
+      <c r="D116">
+        <v>5.910929889995235</v>
+      </c>
+      <c r="E116">
+        <v>6.355662252987442</v>
+      </c>
+      <c r="F116">
+        <v>6.18826412308259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B117">
+        <v>2699</v>
+      </c>
+      <c r="C117">
+        <v>6.189984688942175</v>
+      </c>
+      <c r="D117">
+        <v>5.967650042086037</v>
+      </c>
+      <c r="E117">
+        <v>6.412319335798314</v>
+      </c>
+      <c r="F117">
+        <v>6.18826412308259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B118">
+        <v>2700</v>
+      </c>
+      <c r="C118">
+        <v>6.188012302138891</v>
+      </c>
+      <c r="D118">
+        <v>5.965718823046174</v>
+      </c>
+      <c r="E118">
+        <v>6.410305781231608</v>
+      </c>
+      <c r="F118">
+        <v>6.152732694704104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B119">
+        <v>2701</v>
+      </c>
+      <c r="C119">
+        <v>6.151313168322938</v>
+      </c>
+      <c r="D119">
+        <v>5.929056855311634</v>
+      </c>
+      <c r="E119">
+        <v>6.373569481334242</v>
+      </c>
+      <c r="F119">
+        <v>6.113682179832232</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B120">
+        <v>2702</v>
+      </c>
+      <c r="C120">
+        <v>6.112171687599131</v>
+      </c>
+      <c r="D120">
+        <v>5.889951972698547</v>
+      </c>
+      <c r="E120">
+        <v>6.334391402499715</v>
+      </c>
+      <c r="F120">
+        <v>6.07993319509559</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B121">
+        <v>2703</v>
+      </c>
+      <c r="C121">
+        <v>6.078604342774033</v>
+      </c>
+      <c r="D121">
+        <v>5.856422409498599</v>
+      </c>
+      <c r="E121">
+        <v>6.300786276049466</v>
+      </c>
+      <c r="F121">
+        <v>6.052089168924417</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B122">
+        <v>2704</v>
+      </c>
+      <c r="C122">
+        <v>6.050958016573107</v>
+      </c>
+      <c r="D122">
+        <v>5.828814920640184</v>
+      </c>
+      <c r="E122">
+        <v>6.27310111250603</v>
+      </c>
+      <c r="F122">
+        <v>6.035481432524756</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B123">
+        <v>2705</v>
+      </c>
+      <c r="C123">
+        <v>6.034739992528084</v>
+      </c>
+      <c r="D123">
+        <v>5.812637194455032</v>
+      </c>
+      <c r="E123">
+        <v>6.256842790601135</v>
+      </c>
+      <c r="F123">
+        <v>6.037870919922137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B124">
+        <v>2706</v>
+      </c>
+      <c r="C124">
+        <v>6.037788545617438</v>
+      </c>
+      <c r="D124">
+        <v>5.815726752405904</v>
+      </c>
+      <c r="E124">
+        <v>6.259850338828973</v>
+      </c>
+      <c r="F124">
+        <v>6.016157159698354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B125">
+        <v>2707</v>
+      </c>
+      <c r="C125">
+        <v>6.015197525245005</v>
+      </c>
+      <c r="D125">
+        <v>5.793175260154612</v>
+      </c>
+      <c r="E125">
+        <v>6.237219790335397</v>
+      </c>
+      <c r="F125">
+        <v>6.059123195581797</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
         <v>2708</v>
       </c>
-      <c r="B3">
+      <c r="B126">
         <v>2708</v>
       </c>
-      <c r="C3">
+      <c r="C126">
         <v>6.060481852779041</v>
       </c>
-      <c r="D3">
+      <c r="D126">
         <v>5.838494427690869</v>
       </c>
-      <c r="E3">
+      <c r="E126">
         <v>6.282469277867214</v>
       </c>
-      <c r="F3">
+      <c r="F126">
         <v>6.073044534100405</v>
       </c>
     </row>
